--- a/data/case1/5/Qlm2_13.xlsx
+++ b/data/case1/5/Qlm2_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.10346336536547085</v>
+        <v>-0.11327129920958612</v>
       </c>
       <c r="B1" s="0">
-        <v>0.10343635599468826</v>
+        <v>0.11319305610440011</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.081334773975750174</v>
+        <v>-0.091091212324593052</v>
       </c>
       <c r="B2" s="0">
-        <v>0.081227994389999836</v>
+        <v>0.09085401624787881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.031529229317120766</v>
+        <v>-0.073373377566127829</v>
       </c>
       <c r="B3" s="0">
-        <v>0.031353083780434332</v>
+        <v>0.073238339803754826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.02335308385968915</v>
+        <v>-0.065238339895820729</v>
       </c>
       <c r="B4" s="0">
-        <v>0.02302201628898537</v>
+        <v>0.064676900294525552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.020022016325024872</v>
+        <v>-0.061676900341821828</v>
       </c>
       <c r="B5" s="0">
-        <v>0.018902165367107315</v>
+        <v>0.059751386558663633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.040802370100170293</v>
+        <v>-0.052673566119439741</v>
       </c>
       <c r="B6" s="0">
-        <v>0.04042987664644393</v>
+        <v>0.052078318837493143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.030429876749934692</v>
+        <v>-0.042078318967049277</v>
       </c>
       <c r="B7" s="0">
-        <v>0.030346559943059237</v>
+        <v>0.041928461360726921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.02034656004990465</v>
+        <v>-0.03192846149568318</v>
       </c>
       <c r="B8" s="0">
-        <v>0.020217887008351365</v>
+        <v>0.031646403214322216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.01821788704767302</v>
+        <v>-0.029646403277184596</v>
       </c>
       <c r="B9" s="0">
-        <v>0.018118752017860285</v>
+        <v>0.029409482569832335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.016118752060602759</v>
+        <v>-0.027409482639368932</v>
       </c>
       <c r="B10" s="0">
-        <v>0.016114539134569839</v>
+        <v>0.027395026287756252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013114539186385166</v>
+        <v>-0.024395026368002171</v>
       </c>
       <c r="B11" s="0">
-        <v>0.013106484808824703</v>
+        <v>0.024368945266354913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0096064848656549628</v>
+        <v>-0.020868945353001767</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0095523415410205814</v>
+        <v>0.020671830009886261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0060523416003892549</v>
+        <v>-0.017171830103025698</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0060344910630352189</v>
+        <v>0.017082425367975773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.001965508836989649</v>
+        <v>-0.0090824255072021742</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0019666110575098372</v>
+        <v>0.0090535825035100714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0029666110199704221</v>
+        <v>-0.0080535825750889245</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0029667423641157598</v>
+        <v>0.0080349973939437547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0049667423178081371</v>
+        <v>-0.0060349974765343539</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0049729731695511425</v>
+        <v>0.0060032244225673992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003151512612213</v>
+        <v>-0.0040032245068495342</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999363997674</v>
+        <v>0.0039999998955986271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016101582073083875</v>
+        <v>-0.016101843840033325</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090797460474704</v>
+        <v>0.016090618394127176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090797497099182</v>
+        <v>-0.012090618434856371</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016144412499763</v>
+        <v>0.012015869701450299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080161444521706926</v>
+        <v>-0.0080158697453356353</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056106689365691</v>
+        <v>0.0080055381094137346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056107090311599</v>
+        <v>-0.0040055381537635881</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999595812241</v>
+        <v>0.0039999999552522425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045698765114776663</v>
+        <v>-0.045704033835097135</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045489741202505485</v>
+        <v>0.045493490517580781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040489741256336309</v>
+        <v>-0.040493490579302183</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097059144889258</v>
+        <v>0.040097787302288523</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097059338552548</v>
+        <v>-0.02009778751758784</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999803574475</v>
+        <v>0.019999999781670219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0072910785567081859</v>
+        <v>-0.0050778204878607625</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.0073044239673549782</v>
+        <v>0.0050381746332472943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0098044239322856441</v>
+        <v>-0.0025381746870039024</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0098206617524496664</v>
+        <v>0.0024889084455903543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.012320661717664105</v>
+        <v>-0.021373817121840499</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.012412895378895783</v>
+        <v>0.021021155134659519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.01441289535025625</v>
+        <v>-0.01902115518850156</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.014465741652359476</v>
+        <v>0.018799466883339555</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.021465741580579234</v>
+        <v>-0.011799466989364404</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.021478518912193323</v>
+        <v>0.0117474010349925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.023045124556291707</v>
+        <v>0.048252598337438446</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.023307511279532456</v>
+        <v>-0.048478541924889651</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.030307511212878779</v>
+        <v>-0.014021101091817201</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.030375722980723552</v>
+        <v>0.014000868808237144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.040375722888661869</v>
+        <v>-0.0040008689359982696</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.040451044367161515</v>
+        <v>0.0039999999310307288</v>
       </c>
     </row>
   </sheetData>
